--- a/second-order/1877/February1877.xlsx
+++ b/second-order/1877/February1877.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1877 not finished\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1877/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13194" documentId="13_ncr:1_{FD98A761-245B-4507-89F6-A19B72D10CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A347A90E-790B-4A48-8BE2-FB3E4E5A4250}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC1347-D864-0649-8E2C-23A7397B6525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="975" firstSheet="22" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="800" yWindow="760" windowWidth="29040" windowHeight="15840" tabRatio="975" firstSheet="11" activeTab="20" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -292,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +531,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +550,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,9 +568,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,7 +608,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -714,7 +714,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -856,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,53 +866,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2878,49 +2878,49 @@
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4885,49 +4885,49 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6892,49 +6892,49 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8897,60 +8897,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -10894,7 +10894,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -10909,7 +10909,7 @@
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
-      <c r="U33" s="30"/>
+      <c r="U33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10933,49 +10933,49 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12938,60 +12938,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -14935,7 +14935,7 @@
         <v>1.4039999999999999</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -14974,49 +14974,49 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -16981,49 +16981,49 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>61</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -18988,49 +18988,49 @@
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -19940,7 +19940,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>63</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -20850,7 +20850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -20995,49 +20995,49 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -21427,7 +21427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -23002,46 +23002,46 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -23951,7 +23951,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -24211,7 +24211,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -24341,7 +24341,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -25004,60 +25004,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
@@ -25187,7 +25187,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -25317,7 +25317,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -25447,7 +25447,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -25577,7 +25577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -25707,7 +25707,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -25772,7 +25772,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -25967,7 +25967,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -26162,7 +26162,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -26227,7 +26227,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -26617,7 +26617,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -26682,7 +26682,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -26747,7 +26747,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -26877,7 +26877,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -27001,7 +27001,7 @@
         <v>4.3490000000000002</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -27038,61 +27038,61 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27157,7 +27157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -27222,7 +27222,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -27287,7 +27287,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -27417,7 +27417,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -27547,7 +27547,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -27677,7 +27677,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -27807,7 +27807,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -28002,7 +28002,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -28067,7 +28067,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -28262,7 +28262,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -28327,7 +28327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -28392,7 +28392,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -28457,7 +28457,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -28522,7 +28522,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>29.936</v>
       </c>
       <c r="F27" s="6">
-        <v>30.835999999999999</v>
+        <v>29.835999999999999</v>
       </c>
       <c r="G27" s="1">
         <v>40.6</v>
@@ -28717,7 +28717,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -28734,7 +28734,7 @@
         <v>29.728000000000002</v>
       </c>
       <c r="F28" s="6">
-        <v>30.681000000000001</v>
+        <v>29.681000000000001</v>
       </c>
       <c r="G28" s="1">
         <v>43.6</v>
@@ -28782,7 +28782,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -28847,7 +28847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -28912,7 +28912,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -29036,7 +29036,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -29075,46 +29075,46 @@
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29179,7 +29179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -29309,7 +29309,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -29374,7 +29374,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -29439,7 +29439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -29569,7 +29569,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -29634,7 +29634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -29699,7 +29699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -29764,7 +29764,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -29829,7 +29829,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -30024,7 +30024,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -30089,7 +30089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -30154,7 +30154,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -30219,7 +30219,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -30284,7 +30284,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -30349,7 +30349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -30479,7 +30479,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -30609,7 +30609,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -30804,7 +30804,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -30999,7 +30999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -31078,59 +31078,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -31325,7 +31325,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -31455,7 +31455,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -31520,7 +31520,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -31715,7 +31715,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -31845,7 +31845,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -31910,7 +31910,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -32105,7 +32105,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -32235,7 +32235,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -32300,7 +32300,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -32365,7 +32365,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -32430,7 +32430,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -32560,7 +32560,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -32625,7 +32625,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -32690,7 +32690,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -32820,7 +32820,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -32885,7 +32885,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -32950,7 +32950,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -33074,7 +33074,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="5:21 16384:16384">
+    <row r="33" spans="5:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -33112,60 +33112,60 @@
   <dimension ref="A2:U62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="Q25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -33360,7 +33360,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -33425,7 +33425,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -33490,7 +33490,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -33555,7 +33555,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -33620,7 +33620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -33685,7 +33685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -33815,7 +33815,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -33880,7 +33880,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -33945,7 +33945,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -34010,7 +34010,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -34075,7 +34075,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -34205,7 +34205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -34400,7 +34400,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -34530,7 +34530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -34660,7 +34660,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -34725,7 +34725,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -34855,7 +34855,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -34920,7 +34920,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -35109,7 +35109,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -35126,67 +35126,67 @@
       <c r="T33"/>
       <c r="U33"/>
     </row>
-    <row r="50" spans="15:15">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O50" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="15:15">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O51" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="15:15">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O52" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="15:15">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O53" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="15:15">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O54" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="15:15">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="15:15">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O56" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="15:15">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="15:15">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O58" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="15:15">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="15:15">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O60" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="15:15">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O61" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="15:15">
+    <row r="62" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O62" s="1" t="s">
         <v>33</v>
       </c>
@@ -35214,49 +35214,49 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35321,7 +35321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -35386,7 +35386,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -35451,7 +35451,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -35516,7 +35516,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -35581,7 +35581,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -35646,7 +35646,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -35711,7 +35711,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -35776,7 +35776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -35841,7 +35841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -35906,7 +35906,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -35971,7 +35971,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -36036,7 +36036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -36101,7 +36101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -36166,7 +36166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -36231,7 +36231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -36296,7 +36296,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -36361,7 +36361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -36426,7 +36426,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -36491,7 +36491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -36556,7 +36556,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
@@ -36621,7 +36621,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -36686,7 +36686,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -36751,7 +36751,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -36816,7 +36816,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -36881,7 +36881,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -36946,7 +36946,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -37011,7 +37011,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -37141,7 +37141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -37219,60 +37219,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -37402,7 +37402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -37467,7 +37467,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -37532,7 +37532,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -37662,7 +37662,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -37727,7 +37727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -37857,7 +37857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -37987,7 +37987,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -38052,7 +38052,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -38117,7 +38117,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -38182,7 +38182,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -38247,7 +38247,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -38377,7 +38377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -38442,7 +38442,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -38507,7 +38507,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -38572,7 +38572,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -38637,7 +38637,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -38702,7 +38702,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -38767,7 +38767,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -38832,7 +38832,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -38897,7 +38897,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -38962,7 +38962,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -39027,7 +39027,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -39092,7 +39092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -39157,7 +39157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -39216,7 +39216,7 @@
         <v>2.6150000000000002</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -39254,59 +39254,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39371,7 +39371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -39436,7 +39436,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -39501,7 +39501,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -39566,7 +39566,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -39696,7 +39696,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -39826,7 +39826,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -39891,7 +39891,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -39956,7 +39956,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -40086,7 +40086,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -40151,7 +40151,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -40216,7 +40216,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -40411,7 +40411,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -40476,7 +40476,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -40541,7 +40541,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -40606,7 +40606,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -40671,7 +40671,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -40736,7 +40736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -40801,7 +40801,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -40866,7 +40866,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -40931,7 +40931,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -40996,7 +40996,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -41061,7 +41061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -41126,7 +41126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -41191,7 +41191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -41250,7 +41250,7 @@
         <v>7.8550000000000004</v>
       </c>
     </row>
-    <row r="33" spans="5:21 16384:16384">
+    <row r="33" spans="5:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -41286,53 +41286,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDBAB1-DE1F-4A3C-9BCF-CF6F687CA5A3}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="K20" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41397,7 +41397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -41414,7 +41414,7 @@
         <v>29.867999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>28.898</v>
+        <v>29.898</v>
       </c>
       <c r="G4" s="1">
         <v>45.4</v>
@@ -41462,7 +41462,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -41527,7 +41527,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -41592,7 +41592,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -41657,7 +41657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -41722,7 +41722,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -41787,7 +41787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -41852,7 +41852,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -41917,7 +41917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -41982,7 +41982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -42047,7 +42047,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -42112,7 +42112,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -42177,7 +42177,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -42242,7 +42242,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -42437,7 +42437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -42502,7 +42502,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -42567,7 +42567,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -42632,7 +42632,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -42762,7 +42762,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -42827,7 +42827,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -42892,7 +42892,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -42957,7 +42957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -43022,7 +43022,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -43087,7 +43087,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -43152,7 +43152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -43217,7 +43217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -43297,49 +43297,49 @@
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43404,7 +43404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -43469,7 +43469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -43534,7 +43534,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -43599,7 +43599,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -43664,7 +43664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -43729,7 +43729,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -43794,7 +43794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -43859,7 +43859,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -43924,7 +43924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -43989,7 +43989,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -44054,7 +44054,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -44119,7 +44119,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -44184,7 +44184,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -44249,7 +44249,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -44314,7 +44314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -44379,7 +44379,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -44444,7 +44444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -44509,7 +44509,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -44574,7 +44574,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -44639,7 +44639,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -44704,7 +44704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -44769,7 +44769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -44834,7 +44834,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -44964,7 +44964,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -45029,7 +45029,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -45094,7 +45094,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -45159,7 +45159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -45224,7 +45224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -45302,60 +45302,60 @@
   <dimension ref="A2:XFD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
-      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45420,7 +45420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -45485,7 +45485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -45550,7 +45550,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -45615,7 +45615,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -45680,7 +45680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -45745,7 +45745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -45810,7 +45810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -45875,7 +45875,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -45940,7 +45940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -46005,7 +46005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -46070,7 +46070,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -46135,7 +46135,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -46200,7 +46200,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -46265,7 +46265,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -46395,7 +46395,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -46460,7 +46460,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -46525,7 +46525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -46590,7 +46590,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -46655,7 +46655,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -46720,7 +46720,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -46785,7 +46785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -46850,7 +46850,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -46915,7 +46915,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -46980,7 +46980,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
@@ -47045,7 +47045,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -47110,7 +47110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -47175,7 +47175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -47240,7 +47240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -47299,7 +47299,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="33" spans="5:21 16384:16384">
+    <row r="33" spans="5:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -47332,35 +47332,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33273</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33273</Url>
-      <Description>H7Q62YT2XCZT-908671883-33273</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -47408,6 +47379,35 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33273</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33273</Url>
+      <Description>H7Q62YT2XCZT-908671883-33273</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47712,17 +47712,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52BE56D0-8FA6-4294-99EF-E9ADBC078784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52BE56D0-8FA6-4294-99EF-E9ADBC078784}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC002BC-0672-4B05-BB84-FDB9780F4092}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC002BC-0672-4B05-BB84-FDB9780F4092}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>